--- a/ue4-unlua.xlsx
+++ b/ue4-unlua.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UE4Simple\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\lua-c-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B269E1A4-8A88-4818-8468-B7371F844291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基础" sheetId="1" r:id="rId1"/>
+    <sheet name="obj&amp;Lua" sheetId="2" r:id="rId2"/>
+    <sheet name="Lua" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
   <si>
     <t>初始化</t>
   </si>
@@ -116,239 +117,424 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Bind a Lua module for a UObject</t>
+  </si>
+  <si>
+    <t>RegisterClass</t>
+  </si>
+  <si>
+    <t>RegisterClassCore</t>
+  </si>
+  <si>
+    <t>BindInternal</t>
+  </si>
+  <si>
+    <t>替换函数，实现重写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewLuaObject</t>
+  </si>
+  <si>
+    <t>create a Lua instance for this UObject</t>
+  </si>
+  <si>
+    <t>将对象加入GObjectReferencer，防止器被GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入AttachedObjects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有Initialize，则调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLuaContext::NotifyUObjectDeleted</t>
+  </si>
+  <si>
+    <t>FReflectionRegistry::NotifyUObjectDeleted</t>
+  </si>
+  <si>
+    <t>DeleteLuaObject</t>
+  </si>
+  <si>
+    <t>FDelegateHelper::Remove</t>
+  </si>
+  <si>
+    <t>按照CLASS名字创建metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置__index回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置__newindex回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一块userdata，将OBJECT对象地址存在该USERDATA的内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置userdata的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出ObjectMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取对象的table=ObjectMap[objptr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取table 的"Object"对象，即上面的userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将userdata中存的UOBJECT地址设置为NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将objectmap[objptr]设置为nil，即删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddAttachedObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLuaFrame_OnLuaStateCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？未见释放？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaLib_函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义各个类的接口给Lua层，例如SpawnActor等接口，返回Uobject的tale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建Uobject监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销毁Uobject监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册CLASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据classname新建一个metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置__index __newindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册缺省处理 eq cast gc等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set metatable to self</t>
+  </si>
+  <si>
+    <t>SetTableForClass</t>
+  </si>
+  <si>
+    <t>加到全局的UE表里面ue4[name]=metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式下OnPostEngineInit里面初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式下PreBeginPIE回调里初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册类的拓展接口注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？编辑器模式下，监听的是PIE启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将注册表中"ObjectMap"对应的表压入栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新创建一个表INSTANCE，INSTANCE["Object"]=上面的userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lua文件表对应的metatable=新建userdata的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建表INSTANE的metatable=Lua文件的metatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将新建表INSTANE放入全局注册表中，返回其索引ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置ObjectMap[objptr]=INSTANE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnActor</t>
+  </si>
+  <si>
+    <t>Lua中创建物体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的是一张表，而不是userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!cocos返回的ud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AActor *NewActor = World-&gt;SpawnActor(Class, &amp;Transform, SpawnParameters);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLuaContext::NotifyUObjectCreated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会调用到下面的FLuaContext::NotifyUObjectCreated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLua::PushUObject(L, NewActor);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找到注册表中"ObjectMap"对应的表tl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回tl[ptr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的是table，而不是userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UUnLuaManager::Bind(UObjectBaseUtility *Object, UClass *Class, const TCHAR *InModuleName, int32 InitializerTableRef)</t>
+  </si>
+  <si>
+    <t>UnLua::FLuaRetValues RetValues = UnLua::Call(L, "require", TCHAR_TO_UTF8(InModuleName));    // require Lua module</t>
+  </si>
+  <si>
+    <t>加载LUA文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool UUnLuaManager::BindInternal(UObjectBaseUtility* Object, UClass* Class, const FString&amp; InModuleName, bool bNewCreated, bool bMultipleLuaBind, FString&amp; Error)</t>
+  </si>
+  <si>
+    <t>根据上面LUA文件复制一份出来作为该对象的TABLE，不是直接用的LUA文件返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const int32 Type = GetLoadedModule(L, TCHAR_TO_UTF8(*InModuleName));</t>
+  </si>
+  <si>
+    <t>获取文件返回的TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua_newtable(L);</t>
+  </si>
+  <si>
+    <t>新创建一份出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N是递增的，每次创建+1，存在RealModuleNames容器里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新TABLE的名字InModuleName_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package[loaded]=InModuleName_N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置+1后的文件被加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleNames.Add(Class, RealModuleName);</t>
+  </si>
+  <si>
+    <t>Classes.Add(RealModuleName, Class);</t>
+  </si>
+  <si>
+    <t>保存对应关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSet&lt;FName&gt; &amp;LuaFunctions = ModuleFunctions.Add(RealModuleName);</t>
+  </si>
+  <si>
+    <t>GetFunctionList(UnLua::GetState(), TCHAR_TO_UTF8(*RealModuleName), LuaFunctions);                         // get all functions defined in the Lua module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMap&lt;FName, UFunction*&gt; &amp;UEFunctions = OverridableFunctions.Add(Class);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetOverridableFunctions(Class, UEFunctions);                                // get all overridable UFunctions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverrideFunctions(LuaFunctions, UEFunctions, Class, bNewCreated);           // try to override UFunctions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新的INSTANCE表，METATABLE是LUA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++调用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PushFunction(L, Object, "Initialize");</t>
+  </si>
+  <si>
+    <t>int32 PushFunction(lua_State *L, UObjectBaseUtility *Object, const char *FunctionName)</t>
+  </si>
+  <si>
+    <t>先获取ObjectMapping[obj]里面上面创建的INSTANCE，然后从metatable查询函数，查不到则从父类的metatable继续查，这样子就能定位到了LUA里了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G6Hotfix.lua</t>
+  </si>
+  <si>
+    <t>重写了全局的require</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local function SelfLoadFile(strname, bnotprinterr)</t>
+  </si>
+  <si>
+    <t>local env = GetClassModuleEvn(strname)</t>
+  </si>
+  <si>
+    <t>local func, err = UELoadLuaFile(strname, "bt", env)</t>
+  </si>
+  <si>
+    <t>if not func and not bnotprinterr then</t>
+  </si>
+  <si>
+    <t>print("SelfLoadFile : loadfile failed : ", strname, err)</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>return func, err, env</t>
+  </si>
+  <si>
+    <t>local m_mtSandbox = {}</t>
+  </si>
+  <si>
+    <t>function m_mtSandbox:__index(k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if k == "require" then</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return _G[k]</t>
+  </si>
+  <si>
+    <t>local function GetClassModuleEvn(classname)</t>
+  </si>
+  <si>
+    <t>local env = {}</t>
+  </si>
+  <si>
+    <t>setmetatable(env, m_mtSandbox)</t>
+  </si>
+  <si>
+    <t>return env</t>
+  </si>
+  <si>
+    <t>沙盒处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件载入的元表，使文件在沙盒内运行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          return SandBox.Requrie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载文件设置了ENV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UUnLuaManager::Bind</t>
-  </si>
-  <si>
-    <t>Bind a Lua module for a UObject</t>
-  </si>
-  <si>
-    <t>RegisterClass</t>
-  </si>
-  <si>
-    <t>RegisterClassCore</t>
-  </si>
-  <si>
-    <t>BindInternal</t>
-  </si>
-  <si>
-    <t>替换函数，实现重写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NewLuaObject</t>
-  </si>
-  <si>
-    <t>create a Lua instance for this UObject</t>
-  </si>
-  <si>
-    <t>将对象加入GObjectReferencer，防止器被GC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入AttachedObjects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果有Initialize，则调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLuaContext::NotifyUObjectDeleted</t>
-  </si>
-  <si>
-    <t>FReflectionRegistry::NotifyUObjectDeleted</t>
-  </si>
-  <si>
-    <t>DeleteLuaObject</t>
-  </si>
-  <si>
-    <t>FDelegateHelper::Remove</t>
-  </si>
-  <si>
-    <t>按照CLASS名字创建metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置__index回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置__newindex回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…等等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建一块userdata，将OBJECT对象地址存在该USERDATA的内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置userdata的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出ObjectMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取对象的table=ObjectMap[objptr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取table 的"Object"对象，即上面的userdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将userdata中存的UOBJECT地址设置为NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将objectmap[objptr]设置为nil，即删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddAttachedObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnLuaFrame_OnLuaStateCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？未见释放？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuaLib_函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义各个类的接口给Lua层，例如SpawnActor等接口，返回Uobject的tale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建Uobject监听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销毁Uobject监听</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册CLASS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据classname新建一个metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置__index __newindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册缺省处理 eq cast gc等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set metatable to self</t>
-  </si>
-  <si>
-    <t>SetTableForClass</t>
-  </si>
-  <si>
-    <t>加到全局的UE表里面ue4[name]=metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非编辑器模式下OnPostEngineInit里面初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器模式下PreBeginPIE回调里初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册类的拓展接口注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？编辑器模式下，监听的是PIE启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将注册表中"ObjectMap"对应的表压入栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新创建一个表INSTANCE，INSTANCE["Object"]=上面的userdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lua文件表对应的metatable=新建userdata的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建表INSTANE的metatable=Lua文件的metatable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将新建表INSTANE放入全局注册表中，返回其索引ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置ObjectMap[objptr]=INSTANE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpawnActor</t>
-  </si>
-  <si>
-    <t>Lua中创建物体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回的是一张表，而不是userdata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!cocos返回的ud</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AActor *NewActor = World-&gt;SpawnActor(Class, &amp;Transform, SpawnParameters);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLuaContext::NotifyUObjectCreated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部会调用到下面的FLuaContext::NotifyUObjectCreated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnLua::PushUObject(L, NewActor);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">找到注册表中"ObjectMap"对应的表tl </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回tl[ptr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回的是table，而不是userdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将加载的LUA文件复制一份，命名为filename+1之类的，设置文件已经加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -423,6 +609,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -702,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,7 +937,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,12 +967,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -835,7 +1023,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
@@ -843,95 +1031,95 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,167 +1132,173 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E49" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>29</v>
+      <c r="E51" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D53" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="55" spans="3:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="3:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="3:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D70" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D71" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D72" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1112,4 +1306,325 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.25" customWidth="1"/>
+    <col min="3" max="3" width="68.375" customWidth="1"/>
+    <col min="4" max="4" width="67.125" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
+    <col min="3" max="3" width="65.875" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>